--- a/Moranbah North Coal Mine, Australia, M0074.xlsx
+++ b/Moranbah North Coal Mine, Australia, M0074.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">

--- a/Moranbah North Coal Mine, Australia, M0074.xlsx
+++ b/Moranbah North Coal Mine, Australia, M0074.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">

--- a/Moranbah North Coal Mine, Australia, M0074.xlsx
+++ b/Moranbah North Coal Mine, Australia, M0074.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">

--- a/Moranbah North Coal Mine, Australia, M0074.xlsx
+++ b/Moranbah North Coal Mine, Australia, M0074.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Moranbah North Coal Mine, Australia, M0074, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="S57" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T57" s="0" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="S58" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T58" s="0" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="S59" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T59" s="0" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="S60" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T60" s="0" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="S61" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T61" s="0" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="S62" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T62" s="0" t="inlineStr">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="S63" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T63" s="0" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="S64" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T64" s="0" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="S65" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T65" s="0" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="S66" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T66" s="0" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="S67" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T67" s="0" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="S68" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T68" s="0" t="inlineStr">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="S69" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T69" s="0" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="S70" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T70" s="0" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="S71" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T71" s="0" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="S72" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T72" s="0" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="S73" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T73" s="0" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="S74" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T74" s="0" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="S75" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T75" s="0" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="S76" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T76" s="0" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="S77" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T77" s="0" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="S78" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T78" s="0" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="S79" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T79" s="0" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="S80" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T80" s="0" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="S81" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T81" s="0" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="S82" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T82" s="0" t="inlineStr">
@@ -9723,7 +9723,7 @@
       </c>
       <c r="S83" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T83" s="0" t="inlineStr">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="S84" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T84" s="0" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="S85" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T85" s="0" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="S86" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T86" s="0" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="S87" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T87" s="0" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="S88" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T88" s="0" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="S89" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T89" s="0" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="S90" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T90" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="S91" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T91" s="0" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="S92" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T92" s="0" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="S93" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T93" s="0" t="inlineStr">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="S94" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T94" s="0" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="S95" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T95" s="0" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="S96" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T96" s="0" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="S97" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T97" s="0" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="S98" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T98" s="0" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="S99" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T99" s="0" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="S100" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T100" s="0" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="S101" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T101" s="0" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="S102" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T102" s="0" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="S103" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T103" s="0" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="S104" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T104" s="0" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="S105" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T105" s="0" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="S106" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T106" s="0" t="inlineStr">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="S107" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T107" s="0" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="S108" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T108" s="0" t="inlineStr">
@@ -12115,7 +12115,7 @@
       </c>
       <c r="S109" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T109" s="0" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="S110" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T110" s="0" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="S111" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T111" s="0" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="S112" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T112" s="0" t="inlineStr">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="S113" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T113" s="0" t="inlineStr">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="S114" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T114" s="0" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="S115" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T115" s="0" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="S116" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T116" s="0" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="S117" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T117" s="0" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="S118" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T118" s="0" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="S119" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T119" s="0" t="inlineStr">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="S120" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T120" s="0" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="S121" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T121" s="0" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="S122" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T122" s="0" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="S123" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T123" s="0" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="S124" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T124" s="0" t="inlineStr">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="S125" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T125" s="0" t="inlineStr">
@@ -13679,7 +13679,7 @@
       </c>
       <c r="S126" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T126" s="0" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="S127" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T127" s="0" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="S128" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T128" s="0" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="S129" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T129" s="0" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="S130" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T130" s="0" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="S131" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T131" s="0" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="S132" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T132" s="0" t="inlineStr">
